--- a/statistics/HistoricalDistanceData/historical_distance/Q60442108-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q60442108-en.xlsx
@@ -34,13 +34,31 @@
     <t>Tennessee Election Results</t>
   </si>
   <si>
+    <t>Elizabeth Warren Formally Announces 2020 Presidential Bid in Lawrence, Mass.</t>
+  </si>
+  <si>
+    <t>Presidential Ratings</t>
+  </si>
+  <si>
     <t>Candidate preference</t>
   </si>
   <si>
+    <t>Elizabeth Warren Announces Iowa Trip as She Starts Running for President in 2020</t>
+  </si>
+  <si>
+    <t>Find Your Local League</t>
+  </si>
+  <si>
+    <t>2020 President - Sabato's Crystal Ball</t>
+  </si>
+  <si>
     <t>Polls 2020-11-02 (smaller states)</t>
   </si>
   <si>
-    <t>Elizabeth Warren Formally Announces 2020 Presidential Bid in Lawrence, Mass.</t>
+    <t>2020 Electoral Interactive Map</t>
+  </si>
+  <si>
+    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
   </si>
   <si>
     <t>Tennessee: Election Tools, Deadlines, Dates, Rules, and Links</t>
@@ -49,45 +67,27 @@
     <t>2020 Election Forecast</t>
   </si>
   <si>
-    <t>Find Your Local League</t>
-  </si>
-  <si>
-    <t>Presidential Ratings</t>
-  </si>
-  <si>
-    <t>2020 President - Sabato's Crystal Ball</t>
-  </si>
-  <si>
-    <t>2020 Electoral Interactive Map</t>
-  </si>
-  <si>
-    <t>Elizabeth Warren Announces Iowa Trip as She Starts Running for President in 2020</t>
-  </si>
-  <si>
-    <t>Biden dominates the electoral map, but here's how the race could tighten</t>
-  </si>
-  <si>
     <t>2020-11-03T23:15:07UTC</t>
   </si>
   <si>
+    <t>2019-02-09T14:00:04UTC</t>
+  </si>
+  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
+    <t>2018-12-31T13:30:06UTC</t>
+  </si>
+  <si>
     <t>2020-11-02T00:00:00UTC</t>
   </si>
   <si>
-    <t>2019-02-09T14:00:04UTC</t>
+    <t>2020-08-06T13:13:00UTC</t>
   </si>
   <si>
     <t>2020-08-12T06:30:00UTC</t>
   </si>
   <si>
-    <t>2018-12-31T13:30:06UTC</t>
-  </si>
-  <si>
-    <t>2020-08-06T13:13:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -97,37 +97,37 @@
     <t>https://www.nytimes.com/interactive/2020/11/03/us/elections/results-tennessee.html</t>
   </si>
   <si>
+    <t>https://www.nytimes.com/2019/02/09/us/politics/elizabeth-warren-2020.html</t>
+  </si>
+  <si>
+    <t>https://insideelections.com/ratings/president</t>
+  </si>
+  <si>
     <t>https://www.tableau.com/data-insights/us-election-2020/candidate-preference</t>
   </si>
   <si>
+    <t>https://www.nytimes.com/2018/12/31/us/politics/elizabeth-warren-2020-president-announcement.html</t>
+  </si>
+  <si>
+    <t>https://www.lwv.org/local-leagues/find-local-league</t>
+  </si>
+  <si>
+    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
+  </si>
+  <si>
     <t>https://www.swayable.com/polls/2020-11-02-small.html</t>
   </si>
   <si>
-    <t>https://www.nytimes.com/2019/02/09/us/politics/elizabeth-warren-2020.html</t>
+    <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
+  </si>
+  <si>
+    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
   <si>
     <t>https://www.vote.org/state/tennessee/</t>
   </si>
   <si>
     <t>https://projects.fivethirtyeight.com/2020-election-forecast/</t>
-  </si>
-  <si>
-    <t>https://www.lwv.org/local-leagues/find-local-league</t>
-  </si>
-  <si>
-    <t>https://insideelections.com/ratings/president</t>
-  </si>
-  <si>
-    <t>http://centerforpolitics.org/crystalball/2020-president/</t>
-  </si>
-  <si>
-    <t>https://abcnews.go.com/Politics/2020-Electoral-Interactive-Map?basemap=71662160&amp;promoref=brandpromo</t>
-  </si>
-  <si>
-    <t>https://www.nytimes.com/2018/12/31/us/politics/elizabeth-warren-2020-president-announcement.html</t>
-  </si>
-  <si>
-    <t>https://www.nbcnews.com/politics/meet-the-press/biden-dominates-electoral-map-here-s-how-race-could-tighten-n1236001</t>
   </si>
 </sst>
 </file>
@@ -577,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -594,7 +594,7 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -611,7 +611,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>24</v>
@@ -628,7 +628,7 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -645,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
         <v>24</v>
@@ -662,7 +662,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>24</v>
@@ -679,7 +679,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -696,7 +696,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
